--- a/excel/tolls_202309.xlsx
+++ b/excel/tolls_202309.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI64"/>
+  <dimension ref="A1:AI40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -630,7 +630,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="AE2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>18</t>
         </is>
       </c>
       <c r="AF2" t="inlineStr">
@@ -785,24 +785,24 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0AA35C</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -877,7 +877,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
@@ -962,24 +962,24 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>許少凱</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Kent Hsu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0AA371</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
@@ -1139,19 +1139,19 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>88</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>魏毓瑩</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Mina Wei</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1196,7 +1196,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1261,12 +1261,12 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>89</t>
         </is>
       </c>
       <c r="Z5" t="inlineStr">
@@ -1316,24 +1316,24 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>124</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>許少凱</t>
+          <t>鄭捷齡</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Kent Hsu</t>
+          <t>Cynthia Cheng</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0AA375</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1388,7 +1388,7 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1438,7 +1438,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1463,7 +1463,7 @@
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD6" t="inlineStr">
@@ -1493,24 +1493,24 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>85</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>魏毓瑩</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Mina Wei</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0AA375</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1535,7 +1535,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>148</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1575,12 +1575,12 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
@@ -1615,12 +1615,12 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>151</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1670,19 +1670,19 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>545</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>林子玲</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Missy Lin</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1712,12 +1712,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1727,7 +1727,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
@@ -1742,17 +1742,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>70</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
@@ -1777,12 +1777,12 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
@@ -1792,12 +1792,12 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="AD8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AE8" t="inlineStr">
@@ -1847,19 +1847,19 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>635</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -1904,7 +1904,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1934,7 +1934,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1989,7 +1989,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="AD9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>55</t>
         </is>
       </c>
       <c r="AE9" t="inlineStr">
@@ -2024,29 +2024,29 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>113</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2076,7 +2076,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>38</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -2101,7 +2101,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>97</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -2111,12 +2111,12 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>135</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -2181,7 +2181,7 @@
       </c>
       <c r="AE10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AF10" t="inlineStr">
@@ -2201,29 +2201,29 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>林子玲</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Missy Lin</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>57</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2238,17 +2238,17 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2258,7 +2258,7 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
@@ -2308,7 +2308,7 @@
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -2318,7 +2318,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -2353,12 +2353,12 @@
       </c>
       <c r="AD11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="AF11" t="inlineStr">
@@ -2378,29 +2378,29 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>240</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2415,27 +2415,27 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>77</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>125</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
@@ -2450,12 +2450,12 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>129</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>75</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
@@ -2500,12 +2500,12 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>62</t>
         </is>
       </c>
       <c r="Z12" t="inlineStr">
@@ -2520,22 +2520,22 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>93</t>
         </is>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AD12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>102</t>
         </is>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>40</t>
         </is>
       </c>
       <c r="AF12" t="inlineStr">
@@ -2555,24 +2555,24 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1072</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>葉思妤</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Ivy Yeh</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2672,12 +2672,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="AD13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>53</t>
         </is>
       </c>
       <c r="AE13" t="inlineStr">
@@ -2732,29 +2732,29 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>117</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>鄭捷齡</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cynthia Cheng</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>79</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2764,7 +2764,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -2774,12 +2774,12 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>171</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2789,7 +2789,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -2799,17 +2799,17 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>312</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>290</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
@@ -2909,24 +2909,24 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1092</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2986,7 +2986,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
@@ -2996,7 +2996,7 @@
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
@@ -3036,7 +3036,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Z15" t="inlineStr">
@@ -3086,29 +3086,29 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>115</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>315</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3123,17 +3123,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -3143,7 +3143,7 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>154</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>194</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3183,7 +3183,7 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>299</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>152</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -3203,17 +3203,17 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>167</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>252</t>
         </is>
       </c>
       <c r="AD16" t="inlineStr">
@@ -3263,24 +3263,24 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>1541</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3300,27 +3300,27 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>15</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
@@ -3335,12 +3335,12 @@
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>129</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>558</t>
+          <t>15</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3482,12 +3482,12 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -3527,12 +3527,12 @@
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>113</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>108</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
@@ -3547,7 +3547,7 @@
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -3567,7 +3567,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>127</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="AB18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>66</t>
         </is>
       </c>
       <c r="AC18" t="inlineStr">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="AE18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF18" t="inlineStr">
@@ -3617,34 +3617,34 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>600</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>76</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3654,27 +3654,27 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
@@ -3689,27 +3689,27 @@
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
@@ -3724,27 +3724,27 @@
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>2</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
@@ -3759,22 +3759,22 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>61</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>31</t>
         </is>
       </c>
       <c r="AF19" t="inlineStr">
@@ -3794,24 +3794,24 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>629</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>葉思妤</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Ivy Yeh</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3876,7 +3876,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
@@ -3946,7 +3946,7 @@
       </c>
       <c r="AD20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="AE20" t="inlineStr">
@@ -3971,24 +3971,24 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>218</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -4028,7 +4028,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>95</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4043,7 +4043,7 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -4078,7 +4078,7 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -4098,7 +4098,7 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>121</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -4148,99 +4148,99 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>279</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>徐韡庭</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Ada Hsu</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
           <t>15</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>22</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>45</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
@@ -4255,17 +4255,17 @@
       </c>
       <c r="U22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="W22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>53</t>
         </is>
       </c>
       <c r="X22" t="inlineStr">
@@ -4325,29 +4325,29 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>988</t>
+          <t>567</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4372,17 +4372,17 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
@@ -4397,12 +4397,12 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>169</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
@@ -4412,12 +4412,12 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
@@ -4432,22 +4432,22 @@
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -4467,12 +4467,12 @@
       </c>
       <c r="AB23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AC23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AD23" t="inlineStr">
@@ -4482,7 +4482,7 @@
       </c>
       <c r="AE23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="AF23" t="inlineStr">
@@ -4502,24 +4502,24 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>497</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4549,12 +4549,12 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>73</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>184</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -4574,32 +4574,32 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>194</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>136</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>85</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="AB24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>220</t>
         </is>
       </c>
       <c r="AC24" t="inlineStr">
@@ -4654,12 +4654,12 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>139</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>98</t>
         </is>
       </c>
       <c r="AF24" t="inlineStr">
@@ -4679,24 +4679,24 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>1350</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -4806,7 +4806,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>167</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
@@ -4826,7 +4826,7 @@
       </c>
       <c r="AC25" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD25" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="AE25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>68</t>
         </is>
       </c>
       <c r="AF25" t="inlineStr">
@@ -4856,24 +4856,24 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -5003,7 +5003,7 @@
       </c>
       <c r="AC26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="AD26" t="inlineStr">
@@ -5033,24 +5033,24 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5075,12 +5075,12 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>62</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -5125,7 +5125,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -5190,7 +5190,7 @@
       </c>
       <c r="AE27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AF27" t="inlineStr">
@@ -5210,24 +5210,24 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>41</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5287,7 +5287,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>112</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="AB28" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC28" t="inlineStr">
@@ -5367,7 +5367,7 @@
       </c>
       <c r="AE28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="AF28" t="inlineStr">
@@ -5387,24 +5387,24 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>66</t>
+          <t>116</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5414,7 +5414,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -5424,27 +5424,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>63</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>180</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>162</t>
         </is>
       </c>
       <c r="L29" t="inlineStr">
@@ -5459,27 +5459,27 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>163</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>152</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>189</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>117</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>67</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -5494,27 +5494,27 @@
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>175</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>46</t>
         </is>
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>186</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>91</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
@@ -5529,22 +5529,22 @@
       </c>
       <c r="AB29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AC29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>84</t>
         </is>
       </c>
       <c r="AD29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>106</t>
         </is>
       </c>
       <c r="AE29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>80</t>
         </is>
       </c>
       <c r="AF29" t="inlineStr">
@@ -5564,24 +5564,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>1856</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>楊筑珺</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Chynee Yang</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5601,7 +5601,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>63</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5646,7 +5646,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
@@ -5656,7 +5656,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -5671,7 +5671,7 @@
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="AB30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>56</t>
         </is>
       </c>
       <c r="AC30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>52</t>
         </is>
       </c>
       <c r="AD30" t="inlineStr">
@@ -5721,7 +5721,7 @@
       </c>
       <c r="AE30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>62</t>
         </is>
       </c>
       <c r="AF30" t="inlineStr">
@@ -5741,24 +5741,24 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>376</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5853,12 +5853,12 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
@@ -5883,22 +5883,22 @@
       </c>
       <c r="AB31" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AD31" t="inlineStr">
         <is>
-          <t>61</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE31" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>30</t>
         </is>
       </c>
       <c r="AF31" t="inlineStr">
@@ -5918,24 +5918,24 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>30</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6030,12 +6030,12 @@
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>138</t>
         </is>
       </c>
       <c r="X32" t="inlineStr">
@@ -6095,24 +6095,24 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>147</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6132,7 +6132,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>27</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -6142,12 +6142,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -6172,7 +6172,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>88</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="W33" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -6272,136 +6272,136 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>242</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>徐韡庭</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Ada Hsu</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>32</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
           <t>5</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
         <is>
           <t>42</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="V34" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="W34" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="X34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y34" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="Z34" t="inlineStr">
         <is>
           <t>0</t>
@@ -6414,12 +6414,12 @@
       </c>
       <c r="AB34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>54</t>
         </is>
       </c>
       <c r="AC34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="AD34" t="inlineStr">
@@ -6449,24 +6449,24 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>450</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -6591,7 +6591,7 @@
       </c>
       <c r="AB35" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC35" t="inlineStr">
@@ -6626,24 +6626,24 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>6</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6673,17 +6673,17 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L36" t="inlineStr">
@@ -6698,12 +6698,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>47</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6713,12 +6713,12 @@
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
@@ -6733,7 +6733,7 @@
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -6803,29 +6803,29 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>47</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6840,7 +6840,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -6850,17 +6850,17 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>28</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>58</t>
         </is>
       </c>
       <c r="L37" t="inlineStr">
@@ -6875,92 +6875,92 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>193</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="Z37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB37" t="inlineStr">
+        <is>
           <t>194</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="AC37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="AD37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>37</t>
         </is>
       </c>
       <c r="AE37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="AF37" t="inlineStr">
@@ -6980,24 +6980,24 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1070</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7087,7 +7087,7 @@
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>69</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -7127,7 +7127,7 @@
       </c>
       <c r="AC38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>51</t>
         </is>
       </c>
       <c r="AD38" t="inlineStr">
@@ -7137,7 +7137,7 @@
       </c>
       <c r="AE38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>34</t>
         </is>
       </c>
       <c r="AF38" t="inlineStr">
@@ -7157,29 +7157,29 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>154</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>67</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7204,7 +7204,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -7244,12 +7244,12 @@
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>105</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -7309,12 +7309,12 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>59</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>141</t>
         </is>
       </c>
       <c r="AF39" t="inlineStr">
@@ -7334,104 +7334,99 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>524</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>0AA6</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>769</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>81</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>171</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>300</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>498</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>509</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>712</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>873</t>
         </is>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>312</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,217</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,088</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>813</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>538</t>
         </is>
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>754</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>299</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -7441,32 +7436,32 @@
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>828</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>498</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>399</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>873</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>923</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
@@ -7476,22 +7471,22 @@
       </c>
       <c r="AB40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>989</t>
         </is>
       </c>
       <c r="AC40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>690</t>
         </is>
       </c>
       <c r="AD40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>705</t>
         </is>
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>722</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -7511,4250 +7506,7 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>劉勝雄</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Vincent Liu</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>0AA6</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI41" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>傅子峰</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Gibson Fu</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>0AA61</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI42" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>黃式賢</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Shiny Huang</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>0AA81</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI43" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>莊正忠</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Hugo Chuang</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI44" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>189</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>175</t>
-        </is>
-      </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH45" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI45" t="inlineStr">
-        <is>
-          <t>958</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>莊正忠</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Hugo Chuang</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="X47" t="inlineStr">
-        <is>
-          <t>186</t>
-        </is>
-      </c>
-      <c r="Y47" t="inlineStr">
-        <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="Z47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB47" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AC47" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="AD47" t="inlineStr">
-        <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="AE47" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="AF47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH47" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI47" t="inlineStr">
-        <is>
-          <t>677</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>楊筑珺</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Chynee Yang</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH48" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI48" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>蔡俊輝</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Alex Tsai</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI49" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>楊筑珺</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Chynee Yang</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>170</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>郭家渝</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>138</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>198</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>李漩靜</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Jamie Lee</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>134</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>李漩靜</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Jamie Lee</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>247</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>江德蓉</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Leila Jiang</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2AA8C</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2AA8D</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>張雅惠</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>193</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>489</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI60" t="inlineStr">
-        <is>
-          <t>207</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI61" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI62" t="inlineStr">
-        <is>
-          <t>200</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>張雅惠</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>Sofeya Chang</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>173</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>194</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI63" t="inlineStr">
-        <is>
-          <t>544</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>171</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>494</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>344</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>915</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>873</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>747</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>425</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>589</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>299</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>610</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>323</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>320</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>406</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>597</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>339</t>
-        </is>
-      </c>
-      <c r="AE64" t="inlineStr">
-        <is>
-          <t>400</t>
-        </is>
-      </c>
-      <c r="AF64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI64" t="inlineStr">
-        <is>
-          <t>10,434</t>
+          <t>15,765</t>
         </is>
       </c>
     </row>
